--- a/Data/2022-07-28_Morphology_Assay_fchange.xlsx
+++ b/Data/2022-07-28_Morphology_Assay_fchange.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,27 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Body length (µm)</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Body length (µm)</t>
+          <t>Heart Rate (BPM)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (BPM)</t>
+          <t>Ejection fraction (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ejection fraction (%)</t>
+          <t>Number ISV (Count)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Number ISV (Count)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ISV area (µm^2)</t>
         </is>
@@ -484,347 +463,309 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>GSK-369796_1C03</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00712683860783112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003757479760647703</v>
+        <v>-0.01115019728662516</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.09800537252544124</v>
+        <v>0.1645073935273591</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1124571974736144</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.004813200126534171</v>
+        <v>-0.02917453243694913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Daclatasvir_1C04</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+          <t>GSK-369796_1C03</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.003757479760647703</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0002288815646789336</v>
+        <v>-0.09800537252544124</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1163241764871821</v>
+        <v>0.1124571974736144</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02314647368200827</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.06280909713886781</v>
+        <v>0.004813200126534171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+          <t>Daclatasvir_1C04</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.0002288815646789336</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001212938963730896</v>
+        <v>-0.1163241764871821</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1207982928257897</v>
+        <v>-0.02314647368200827</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1043734660440691</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.008610219066656868</v>
+        <v>-0.06280909713886781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Itraconazole_1C06</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001212938963730896</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.007277544896341095</v>
+        <v>-0.1207982928257897</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.154389181187012</v>
+        <v>0.1043734660440691</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02111749699184555</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.03904639643644017</v>
+        <v>-0.008610219066656868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GSK 983_1C07</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
+          <t>Itraconazole_1C06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.007277544896341095</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.002259838796269622</v>
+        <v>-0.154389181187012</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.07442354797680666</v>
+        <v>-0.02111749699184555</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08059972548425759</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.04359648079143141</v>
+        <v>-0.03904639643644017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+          <t>GSK 983_1C07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.002259838796269622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005453158832249775</v>
+        <v>-0.07442354797680666</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03857254319374855</v>
+        <v>0.08059972548425759</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002716959068784144</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.06352378022451353</v>
+        <v>-0.04359648079143141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0005453158832249775</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007925524161004553</v>
+        <v>-0.03857254319374855</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004917617232655698</v>
+        <v>0.002716959068784144</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04282112568146777</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.09563268268207416</v>
+        <v>-0.06352378022451353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.007925524161004553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007283322489235957</v>
+        <v>0.004917617232655698</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01786926064603158</v>
+        <v>0.04282112568146777</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06732018835227227</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.007499856869787911</v>
+        <v>-0.09563268268207416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.007283322489235957</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-0.01786926064603158</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.06732018835227227</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+        <v>0.007499856869787911</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01354489989653655</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01678991739215161</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1305464444199229</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.09909434778571677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Digoxin_1D02</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01354489989653655</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01383657945167974</v>
+        <v>-0.01678991739215161</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0142474382170765</v>
+        <v>0.1305464444199229</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.09666183091499618</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.1218212936962271</v>
+        <v>-0.09909434778571677</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Amodiaquine_1D03</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
+          <t>Digoxin_1D02</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.01383657945167974</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03568241371831653</v>
+        <v>-0.0142474382170765</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.07859000101762069</v>
+        <v>-0.09666183091499618</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.114532666581099</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.02777704145260813</v>
+        <v>0.1218212936962271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>Amodiaquine_1D03</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.03568241371831653</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.07859000101762069</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.114532666581099</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02777704145260813</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B15" t="n">
         <v>-0.1055837990962067</v>
       </c>
-      <c r="D14" t="n">
+      <c r="C15" t="n">
         <v>-0.4248825322273684</v>
       </c>
-      <c r="E14" t="n">
+      <c r="D15" t="n">
         <v>-0.7835237182457304</v>
       </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
         <v>-0.03448275862068965</v>
       </c>
-      <c r="G14" t="n">
+      <c r="F15" t="n">
         <v>-0.236299034905786</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.09116886037424578</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.9449290528258173</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.1797693800867303</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.08361530645508433</v>
       </c>
     </row>
     <row r="16">
@@ -833,22 +774,19 @@
           <t>Halofantrine_1D05</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+      <c r="B16" t="n">
+        <v>-0.005638397349062631</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.005638397349062631</v>
+        <v>-0.2115222658898346</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2115222658898346</v>
+        <v>0.0620129189808214</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0620129189808214</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
         <v>0.006410642578508216</v>
       </c>
     </row>
@@ -858,22 +796,19 @@
           <t>Ravuconazole_1D06</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
+      <c r="B17" t="n">
+        <v>-0.02299793073288319</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02299793073288319</v>
+        <v>-0.0458226824259108</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0458226824259108</v>
+        <v>0.1107691143344936</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1107691143344936</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G17" t="n">
         <v>-0.1242950416573006</v>
       </c>
     </row>
@@ -883,22 +818,19 @@
           <t>Tizoxanide_1D07</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
+      <c r="B18" t="n">
+        <v>-0.008769852698046955</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.008769852698046955</v>
+        <v>-0.01687991354324774</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01687991354324774</v>
+        <v>0.04610612696609903</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04610612696609903</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G18" t="n">
         <v>-0.01135429800730418</v>
       </c>
     </row>
@@ -908,22 +840,19 @@
           <t>Valproic Acid_1D08</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
+      <c r="B19" t="n">
+        <v>-0.005345251174184723</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.005345251174184723</v>
+        <v>-0.01355142860304424</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01355142860304424</v>
+        <v>-0.01908357876307914</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01908357876307914</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G19" t="n">
         <v>0.07517281219613293</v>
       </c>
     </row>
@@ -933,22 +862,19 @@
           <t>Simeprevir_1D09</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
+      <c r="B20" t="n">
+        <v>-0.01976385644548265</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01976385644548265</v>
+        <v>-0.07756273744963059</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.07756273744963059</v>
+        <v>-0.05745828070983299</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.05745828070983299</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
         <v>0.05372381617385411</v>
       </c>
     </row>
@@ -958,22 +884,19 @@
           <t>Favipiravir_1D10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
+      <c r="B21" t="n">
+        <v>-0.02125949747385871</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.02125949747385871</v>
+        <v>-0.05043957819902401</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.05043957819902401</v>
+        <v>-0.03635772789748948</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.03635772789748948</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
         <v>-0.1065792649558337</v>
       </c>
     </row>
@@ -983,22 +906,19 @@
           <t>Vidofludimus_1D11</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" t="n">
+        <v>-0.005526578705036947</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.005526578705036947</v>
+        <v>-0.005499894220121651</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005499894220121651</v>
+        <v>-0.06005022230598844</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.06005022230598844</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G22" t="n">
         <v>0.0296369003137212</v>
       </c>
     </row>
@@ -1008,22 +928,19 @@
           <t>Hydroxyprogesterone_1E02</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
+      <c r="B23" t="n">
+        <v>0.01458322222577764</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01458322222577764</v>
+        <v>-0.01346411136341642</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01346411136341642</v>
+        <v>-0.4245347837341363</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4245347837341363</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
         <v>0.05879373832252265</v>
       </c>
     </row>
@@ -1033,22 +950,19 @@
           <t>Nafamostat_1E03</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
+      <c r="B24" t="n">
+        <v>0.002155708795096293</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002155708795096293</v>
+        <v>-0.06196694977621989</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.06196694977621989</v>
+        <v>-0.4266218709566636</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4266218709566636</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
         <v>-0.0655152687134857</v>
       </c>
     </row>
@@ -1058,22 +972,19 @@
           <t>Amuvatinib_1E04</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
+      <c r="B25" t="n">
+        <v>0.003747991175393455</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003747991175393455</v>
+        <v>-0.0136045859017941</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0136045859017941</v>
+        <v>-0.3472273538307575</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.3472273538307575</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
         <v>0.01022993568305227</v>
       </c>
     </row>
@@ -1083,22 +994,19 @@
           <t>Doxycycline_1E05</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
+      <c r="B26" t="n">
+        <v>-0.02657901613815026</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.02657901613815026</v>
+        <v>-0.07917234652180351</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.07917234652180351</v>
+        <v>-0.0563057421117094</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0563057421117094</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
         <v>-0.0009948384323415628</v>
       </c>
     </row>
@@ -1108,22 +1016,19 @@
           <t>Emetine_1E06</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
+      <c r="B27" t="n">
+        <v>0.001930604887310202</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001930604887310202</v>
+        <v>-0.003480410610421215</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.003480410610421215</v>
+        <v>-0.3337911644289491</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3337911644289491</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
         <v>-0.01756988438681198</v>
       </c>
     </row>
@@ -1133,22 +1038,19 @@
           <t>Triparanol_1E07</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
+      <c r="B28" t="n">
+        <v>0.007050441052553108</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007050441052553108</v>
+        <v>0.02597889526844621</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02597889526844621</v>
+        <v>-0.4666627584674933</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4666627584674933</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
         <v>0.01709840257907382</v>
       </c>
     </row>
@@ -1158,22 +1060,19 @@
           <t>Clomipramine_1E08</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
+      <c r="B29" t="n">
+        <v>-0.02315570346193369</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.02315570346193369</v>
+        <v>0.01776778390935521</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01776778390935521</v>
+        <v>-0.4155220735930965</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.4155220735930965</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
         <v>0.05573900699972252</v>
       </c>
     </row>
@@ -1183,22 +1082,19 @@
           <t>Sofosbuvir_1E09</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
+      <c r="B30" t="n">
+        <v>-0.002311148265477731</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.002311148265477731</v>
+        <v>0.01704695372419331</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01704695372419331</v>
+        <v>-0.2953383252004894</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.2953383252004894</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G30" t="n">
         <v>0.05443298564582602</v>
       </c>
     </row>
@@ -1208,22 +1104,19 @@
           <t>Camostat_1E10</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
+      <c r="B31" t="n">
+        <v>0.001474597257332212</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001474597257332212</v>
+        <v>0.03721802411676713</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03721802411676713</v>
+        <v>-0.5298185568091974</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.5298185568091974</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
         <v>-0.05186685258972493</v>
       </c>
     </row>
@@ -1233,22 +1126,19 @@
           <t>SMN-C3_1E11</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
+      <c r="B32" t="n">
+        <v>0.002299881959332786</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002299881959332786</v>
+        <v>0.006518058833472262</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006518058833472262</v>
+        <v>-0.2571224589026636</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2571224589026636</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
         <v>-0.006043138855094042</v>
       </c>
     </row>
@@ -1258,22 +1148,19 @@
           <t>Valsartan_1F02</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>0.01114982098350619</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01114982098350619</v>
+        <v>-0.01953434644011733</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01953434644011733</v>
+        <v>-0.2141119220431045</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.2141119220431045</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G33" t="n">
         <v>-0.115307995071116</v>
       </c>
     </row>
@@ -1283,22 +1170,19 @@
           <t>Amiodarone_1F03</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
+      <c r="B34" t="n">
+        <v>-0.01744657504293207</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01744657504293207</v>
+        <v>-0.3167031952359304</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3167031952359304</v>
+        <v>-0.1495011237230441</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.1495011237230441</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G34" t="n">
         <v>-0.1416220070848472</v>
       </c>
     </row>
@@ -1308,22 +1192,19 @@
           <t>Cyclosporine_1F04</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
+      <c r="B35" t="n">
+        <v>-0.032948812304673</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.032948812304673</v>
+        <v>-0.1250699564956635</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1250699564956635</v>
+        <v>-0.04961469808355425</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.04961469808355425</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
         <v>-0.224286230701199</v>
       </c>
     </row>
@@ -1333,22 +1214,19 @@
           <t>Ivermectin_1F05</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+      <c r="B36" t="n">
+        <v>-0.07494711280350151</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.07494711280350151</v>
+        <v>-0.5581970577830738</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.5581970577830738</v>
+        <v>0.03299084620236045</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03299084620236045</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G36" t="n">
         <v>-0.2409763621902911</v>
       </c>
     </row>
@@ -1358,22 +1236,19 @@
           <t>Indomethacin_1F06</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
+      <c r="B37" t="n">
+        <v>-0.04084535961515908</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.04084535961515908</v>
+        <v>0.001936690844561634</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001936690844561634</v>
+        <v>-0.08469652857215955</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.08469652857215955</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
         <v>-0.1170379595540736</v>
       </c>
     </row>
@@ -1383,22 +1258,19 @@
           <t>Captopril_1F07</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
+      <c r="B38" t="n">
+        <v>-0.02195129755847817</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.02195129755847817</v>
+        <v>0.003642415805263389</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003642415805263389</v>
+        <v>-0.08282786947253286</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.08282786947253286</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
         <v>-0.1585304746566137</v>
       </c>
     </row>
@@ -1408,3369 +1280,2751 @@
           <t>Sorafenib_1F09</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="B39" t="n">
+        <v>-0.05048222901311607</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.05048222901311607</v>
+        <v>-0.3286117631421266</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3286117631421265</v>
+        <v>-0.5203046265466941</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.5203046265466941</v>
+        <v>-0.9310344827586207</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.9310344827586207</v>
-      </c>
-      <c r="G39" t="n">
         <v>-0.5119966675119724</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n">
-        <v>0.5</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0001434398543690688</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.02087795412769005</v>
+        <v>-0.2087691825671514</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.08439932628584117</v>
+        <v>-0.06402152522261127</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007863415416326925</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1206896551724138</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-0.1720663063870902</v>
+        <v>-0.06619936155120019</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.004016227036290393</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0001434398543690688</v>
+        <v>-0.03574247349438197</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2087691825671514</v>
+        <v>-0.1355367795900152</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.06402152522261127</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.06619936155120019</v>
+        <v>-0.175337085462401</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.02593703668149286</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.004016227036290393</v>
+        <v>-0.08874606132518034</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.03574247349438197</v>
+        <v>-0.07222402503556485</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.1355367795900152</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-0.175337085462401</v>
+        <v>-0.1479084317907293</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.009496496112124407</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.02593703668149286</v>
+        <v>-0.172925171050358</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.08874606132518034</v>
+        <v>-0.0621319011172517</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.07222402503556485</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-0.1479084317907293</v>
+        <v>-0.07525453438847189</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.04334399077007321</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.009496496112124407</v>
+        <v>-0.9070563703979871</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.172925171050358</v>
+        <v>-0.8109305253993628</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0621319011172517</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-0.07525453438847189</v>
+        <v>-0.2843081284717092</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.0574821605708617</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.04334399077007321</v>
+        <v>-0.2149798311034005</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.9070563703979871</v>
+        <v>0.008620798621945808</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.8109305253993628</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-0.2843081284717092</v>
+        <v>-0.06696357906782612</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n">
-        <v>0.5</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.00594474310155417</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.009835285270871283</v>
+        <v>-0.1721003141136197</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.6090800626023113</v>
+        <v>-0.09917405252301034</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.1941463569953896</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-0.02530616147348484</v>
+        <v>-0.2860952685502859</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.01989363007050437</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0574821605708617</v>
+        <v>-0.06194158751082038</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2149798311034005</v>
+        <v>-0.0106611734402214</v>
       </c>
       <c r="E47" t="n">
-        <v>0.008620798621945808</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-0.06696357906782612</v>
+        <v>-0.009652049231578027</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.004648473471071029</v>
       </c>
       <c r="C48" t="n">
-        <v>0.00594474310155417</v>
+        <v>-0.1605049455085332</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1721003141136197</v>
+        <v>0.01571107148596218</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.09917405252301034</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-0.2860952685502859</v>
+        <v>-0.1837955480198554</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.0365693631137138</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01989363007050437</v>
+        <v>-0.4801111529346809</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.06194158751082038</v>
+        <v>-0.1350561863733845</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.0106611734402214</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-0.009652049231578027</v>
+        <v>-0.04343225829015767</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.001476663857867566</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.004648473471071029</v>
+        <v>-0.06756227747042014</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.160504945508533</v>
+        <v>-0.08266337819567406</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01571107148596236</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F50" t="n">
+        <v>-0.1074394626443445</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.03782901169384813</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.08862540413869106</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1186246000164902</v>
+      </c>
+      <c r="E51" t="n">
         <v>-0.01724137931034483</v>
       </c>
-      <c r="G50" t="n">
-        <v>-0.1837955480198554</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-0.007056885290781812</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-0.2391041402697273</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-0.01313539009451805</v>
-      </c>
       <c r="F51" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-0.07875164488997985</v>
+        <v>-0.07786427286989973</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.04398254811401601</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0365693631137138</v>
+        <v>-0.02670813343531545</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.4801111529346808</v>
+        <v>0.07447740217738172</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1350561863733845</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-0.04343225829015767</v>
+        <v>-0.0421952061324114</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n">
-        <v>0.5</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.009409032244301577</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01256702007757971</v>
+        <v>-0.01732353407851532</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2486939858466934</v>
+        <v>-0.323410518800583</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02240371919477434</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-0.01458019307606877</v>
+        <v>0.05772030957173618</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.004618252215929033</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.001476663857867566</v>
+        <v>-0.05167651910438204</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.06756227747042014</v>
+        <v>-0.3603261888420143</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.08266337819567406</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-0.1074394626443445</v>
+        <v>-0.01783112617984053</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.002913773425917126</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03782901169384813</v>
+        <v>-0.0548570929476269</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.08862540413869106</v>
+        <v>-0.1201140637233662</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1186246000164902</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-0.07786427286989973</v>
+        <v>-0.01664701236970052</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.01527248905812803</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04398254811401601</v>
+        <v>-0.04623989653834119</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02670813343531545</v>
+        <v>-0.3699524698575505</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07447740217738172</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-0.0421952061324114</v>
+        <v>0.1910628541309405</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.02115954511677848</v>
       </c>
       <c r="C57" t="n">
-        <v>0.009409032244301577</v>
+        <v>0.04967074194929143</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01732353407851532</v>
+        <v>-0.1461327253177891</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.323410518800583</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F57" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.05772030957173618</v>
+        <v>0.09674630603523693</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.02503097678652067</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.004618252215929033</v>
+        <v>-0.04879970431706839</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.05167651910438204</v>
+        <v>0.03990374626252334</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3603261888420143</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-0.01783112617984053</v>
+        <v>-0.0530726252417675</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.01358525416075569</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.002913773425917126</v>
+        <v>-0.05204455388050127</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.0548570929476269</v>
+        <v>-0.128167291837342</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1201140637233662</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-0.01664701236970052</v>
+        <v>-0.07546625487396172</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.00986737313294863</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01527248905812803</v>
+        <v>0.05447023290346559</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.04623989653834119</v>
+        <v>-0.1851016183454993</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3699524698575505</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.1910628541309405</v>
+        <v>0.05752113661610024</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.002308237247519229</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02115954511677848</v>
+        <v>0.05222180140379252</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04967074194929143</v>
+        <v>0.0365571704519049</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1461327253177891</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.09674630603523693</v>
+        <v>0.1047458656576752</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>1</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.01178828944140458</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02503097678652067</v>
+        <v>-0.006820120071054286</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.04879970431706839</v>
+        <v>-0.3288213565338179</v>
       </c>
       <c r="E62" t="n">
-        <v>0.03990374626252334</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-0.0530726252417675</v>
+        <v>0.05970895763970182</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.03085616815817455</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01358525416075569</v>
+        <v>-0.1917682468665252</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.05204455388050127</v>
+        <v>-0.03148572989060737</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.128167291837342</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-0.07546625487396172</v>
+        <v>0.02213482045030708</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>1</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.01598242189583272</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.00986737313294863</v>
+        <v>-0.1093578705766873</v>
       </c>
       <c r="D64" t="n">
-        <v>0.05447023290346559</v>
+        <v>-0.09777814192280526</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1851016183454993</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.05752113661610024</v>
+        <v>-0.01130009817688429</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>1</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.0163707650244082</v>
       </c>
       <c r="C65" t="n">
-        <v>0.002308237247519229</v>
+        <v>-0.110247393797775</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05222180140379252</v>
+        <v>-0.118165948359695</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0365571704519049</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.1047458656576752</v>
+        <v>-0.142258691863213</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.01025838284286022</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01178828944140458</v>
+        <v>-0.171197821971894</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.006820120071054286</v>
+        <v>-0.875693990546807</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3288213565338179</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.05970895763970182</v>
+        <v>-0.0757120532076016</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>1</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.04563720627606585</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.03085616815817455</v>
+        <v>-0.197108879645586</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.1917682468665252</v>
+        <v>-0.2063850294021187</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.03148572989060737</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.02213482045030708</v>
+        <v>-0.05301075793245581</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>1</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.09395468233905414</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.01598242189583272</v>
+        <v>-0.1079686722487392</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.1093578705766873</v>
+        <v>-0.185449790863783</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.09777814192280526</v>
+        <v>-0.1724137931034483</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-0.01130009817688429</v>
+        <v>-0.3722846089123866</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>1</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.01817115185647391</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.0163707650244082</v>
+        <v>-0.06097890316324067</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.110247393797775</v>
+        <v>-0.2997573404567632</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.118165948359695</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-0.142258691863213</v>
+        <v>0.1148449693312674</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>1</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.01762948030107486</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.01025838284286022</v>
+        <v>-0.09703542164379472</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.171197821971894</v>
+        <v>-0.1840825947467231</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.875693990546807</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-0.0757120532076016</v>
+        <v>0.04105227925778576</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0144717146829078</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.04563720627606585</v>
+        <v>-0.05037087836132494</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.197108879645586</v>
+        <v>-0.1638380534337215</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2063850294021187</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-0.05301075793245581</v>
+        <v>-0.0242323838094793</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>1</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.001178895608673793</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.09395468233905414</v>
+        <v>-0.06670110587332163</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1079686722487392</v>
+        <v>0.07477569164705122</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.185449790863783</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.1724137931034483</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-0.3722846089123866</v>
+        <v>-0.01260860388619079</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n">
-        <v>0.5</v>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.001764654642162561</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.08111122666296892</v>
+        <v>-0.02623647948550573</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.1252187696902846</v>
+        <v>-0.009082614498580605</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1966760370998306</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.06896551724137931</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.006862871550193496</v>
+        <v>0.1551716486773633</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>1</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.0208086674559747</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01817115185647391</v>
+        <v>-0.02259028281510359</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.06097890316324067</v>
+        <v>-0.1042060265798755</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.2997573404567632</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.1148449693312674</v>
+        <v>0.06323716963231921</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.008529815934779049</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.01762948030107486</v>
+        <v>-0.03971649372924733</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.09703542164379472</v>
+        <v>-0.07404422651499165</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.1840825947467231</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.04105227925778576</v>
+        <v>0.008227754801378927</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="n">
-        <v>1</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.01701421110080032</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0144717146829078</v>
+        <v>-0.1214982879819564</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.05037087836132494</v>
+        <v>-0.03613034002739701</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1638380534337215</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F76" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-0.0242323838094793</v>
+        <v>-0.01741361859912692</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>1</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.02479338438947731</v>
       </c>
       <c r="C77" t="n">
-        <v>0.001178895608673793</v>
+        <v>-0.01089441547306179</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.06670110587332163</v>
+        <v>0.05892354237457461</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07477569164705122</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-0.01260860388619079</v>
+        <v>-0.1125666659881034</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.01065632566424543</v>
       </c>
       <c r="C78" t="n">
-        <v>0.001764654642162561</v>
+        <v>-0.119073763623058</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.02623647948550573</v>
+        <v>0.4466058585474657</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.009082614498580605</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.1551716486773633</v>
+        <v>-0.07762930645712973</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="n">
-        <v>1</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.007906147003295805</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.0208086674559747</v>
+        <v>0.003763324544453738</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.02259028281510359</v>
+        <v>0.03553963249304106</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1042060265798755</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.06323716963231921</v>
+        <v>0.2413266792643443</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="n">
-        <v>1</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.01505160723745731</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.008529815934779049</v>
+        <v>0.001224718512913507</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.03971649372924733</v>
+        <v>0.05381095776074026</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.07404422651499165</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.008227754801378927</v>
+        <v>0.1108348692248611</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>1</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-6.355352184274514e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.01701421110080032</v>
+        <v>0.008176775483017049</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1214982879819564</v>
+        <v>0.2121052949888037</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.03613034002739701</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-0.01741361859912692</v>
+        <v>-0.01003384197516034</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>1</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.01221276474708359</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.02479338438947731</v>
+        <v>0.01112680589493983</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01089441547306179</v>
+        <v>0.1032866906652743</v>
       </c>
       <c r="E82" t="n">
-        <v>0.05892354237457461</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-0.1125666659881034</v>
+        <v>0.07050218805919514</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>1</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.01166584891505685</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.01065632566424543</v>
+        <v>0.007331212386332342</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.119073763623058</v>
+        <v>-0.02310723878765693</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4466058585474657</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-0.07762930645712973</v>
+        <v>-0.08810929493164037</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n">
-        <v>0.5</v>
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.03317796052748527</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.01694208007565981</v>
+        <v>-0.104292796625223</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.3698351981908353</v>
+        <v>0.1352585868135843</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6029327515900074</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.06485463869556723</v>
+        <v>-0.08903867374063522</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.01548830437426</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.007906147003295805</v>
+        <v>-0.09395818510330955</v>
       </c>
       <c r="D85" t="n">
-        <v>0.003763324544453738</v>
+        <v>-0.07331444002435594</v>
       </c>
       <c r="E85" t="n">
-        <v>0.03553963249304106</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.2413266792643443</v>
+        <v>-0.07335994151566182</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>1</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.03806100427008557</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.01505160723745731</v>
+        <v>-0.1101951701690984</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001224718512913507</v>
+        <v>-0.139400925599781</v>
       </c>
       <c r="E86" t="n">
-        <v>0.05381095776074026</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.1108348692248611</v>
+        <v>-0.04364761333786148</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.01047193156485646</v>
       </c>
       <c r="C87" t="n">
-        <v>-6.355352184274514e-05</v>
+        <v>-0.1063556957765006</v>
       </c>
       <c r="D87" t="n">
-        <v>0.008176775483017049</v>
+        <v>0.08945759215518324</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2121052949888037</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-0.01003384197516034</v>
+        <v>-0.01078077079707325</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>1</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.04585355490846511</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.01221276474708359</v>
+        <v>-0.05006026323519172</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01112680589493983</v>
+        <v>0.02839760627075248</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1032866906652743</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.07050218805919514</v>
+        <v>-0.08278666200731988</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.04602377168375051</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.01166584891505685</v>
+        <v>0.01601593778908442</v>
       </c>
       <c r="D89" t="n">
-        <v>0.007331212386332342</v>
+        <v>0.04724517041884032</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.02310723878765693</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-0.08810929493164037</v>
+        <v>-0.1598523789810213</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>1</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.006039806726184702</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.03317796052748527</v>
+        <v>0.0006869773455021699</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.104292796625223</v>
+        <v>-0.1044413876029732</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1352585868135843</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-0.08903867374063522</v>
+        <v>-0.0895464500454687</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.006119093077910395</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.01548830437426</v>
+        <v>0.0135199562886822</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.09395818510330955</v>
+        <v>-0.02749736899133361</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.07331444002435594</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-0.07335994151566182</v>
+        <v>-0.0575500566365111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>1</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.01718051689012621</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.03806100427008557</v>
+        <v>0.01251232694068179</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.1101951701690984</v>
+        <v>0.08459608369978866</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.139400925599781</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-0.04364761333786148</v>
+        <v>-0.06479716302288066</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>1</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.01486405768348745</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.01047193156485646</v>
+        <v>-0.02192033624128829</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.1063556957765006</v>
+        <v>0.03352692071037028</v>
       </c>
       <c r="E93" t="n">
-        <v>0.08945759215518324</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-0.01078077079707325</v>
+        <v>-0.03797834678988829</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="n">
-        <v>1</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.01332179592475261</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.04585355490846511</v>
+        <v>-0.1283119876046585</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.05006026323519172</v>
+        <v>-0.130434800525958</v>
       </c>
       <c r="E94" t="n">
-        <v>0.02839760627075248</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-0.08278666200731988</v>
+        <v>0.0354617837458284</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>1</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.0009487251963493173</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.04602377168375051</v>
+        <v>-0.08109066565546912</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01601593778908442</v>
+        <v>-0.1021079209418307</v>
       </c>
       <c r="E95" t="n">
-        <v>0.04724517041884032</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-0.1598523789810213</v>
+        <v>0.09192517897361673</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>1</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.02560069188897065</v>
       </c>
       <c r="C96" t="n">
-        <v>0.006039806726184702</v>
+        <v>-0.1345596490724757</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0006869773455021699</v>
+        <v>-0.01059156339905711</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.1044413876029732</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-0.0895464500454687</v>
+        <v>0.03957003324934933</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.0005319385335225379</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.006119093077910395</v>
+        <v>0.03293277762065795</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0135199562886822</v>
+        <v>0.0187873442044813</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.02749736899133361</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-0.0575500566365111</v>
+        <v>-0.0679396872469149</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="n">
-        <v>1</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.0006461126577283565</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.01718051689012621</v>
+        <v>-0.03736169140654919</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01251232694068179</v>
+        <v>-0.05759001933459237</v>
       </c>
       <c r="E98" t="n">
-        <v>0.08459608369978866</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-0.06479716302288066</v>
+        <v>-0.07265373141682412</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>1</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.01452246861433767</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.01486405768348745</v>
+        <v>-0.02560752484369195</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.02192033624128829</v>
+        <v>-0.08633029830315016</v>
       </c>
       <c r="E99" t="n">
-        <v>0.03352692071037028</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-0.03797834678988829</v>
+        <v>-0.07621878302477562</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>1</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.005702306415083616</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.01332179592475261</v>
+        <v>-0.02780716906791725</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1283119876046585</v>
+        <v>-0.1788102331599992</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.130434800525958</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.0354617837458284</v>
+        <v>-0.04583000266636217</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.008375554204487677</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.0009487251963493173</v>
+        <v>-0.005293003917354329</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.08109066565546912</v>
+        <v>0.0153362497099775</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.1021079209418307</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.09192517897361673</v>
+        <v>0.08272567284627266</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B102" s="1" t="n">
-        <v>1</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.005727816709865342</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.02560069188897065</v>
+        <v>0.05632967273557946</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1345596490724757</v>
+        <v>0.03377762948308386</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.01059156339905711</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.03957003324934933</v>
+        <v>0.0434636409851164</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B103" s="1" t="n">
-        <v>1</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.00861847976420314</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.0005319385335225379</v>
+        <v>0.001308676930833753</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03293277762065795</v>
+        <v>-0.0476872797426779</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0187873442044813</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-0.0679396872469149</v>
+        <v>-0.09653793230270934</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>1</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.002469343203239683</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.0006461126577283565</v>
+        <v>-0.1026334353407644</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.03736169140654919</v>
+        <v>0.03938193814457942</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.05759001933459237</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-0.07265373141682412</v>
+        <v>-0.04579160294099226</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.01950395365126096</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01452246861433767</v>
+        <v>-0.002106523345474991</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.02560752484369195</v>
+        <v>-0.05567497318462463</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.08633029830315016</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-0.07621878302477562</v>
+        <v>0.02814930568683388</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>1</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.00414280076370896</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.005702306415083616</v>
+        <v>-0.1149061513048747</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.02780716906791725</v>
+        <v>0.07412545199449497</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.1788102331599992</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-0.04583000266636217</v>
+        <v>0.06734081927468333</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.00215588656718535</v>
       </c>
       <c r="C107" t="n">
-        <v>0.008375554204487677</v>
+        <v>-0.007939448039321772</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.005293003917354329</v>
+        <v>-0.09415580296038538</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0153362497099775</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.08272567284627266</v>
+        <v>0.0397262929535377</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>1</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.0174703742813563</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.005727816709865342</v>
+        <v>0.001688025340408991</v>
       </c>
       <c r="D108" t="n">
-        <v>0.05632967273557946</v>
+        <v>0.0236344089127934</v>
       </c>
       <c r="E108" t="n">
-        <v>0.03377762948308386</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.0434636409851164</v>
+        <v>-0.09424101818828895</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>1</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.01992105141524359</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.00861847976420314</v>
+        <v>-2.07611237927908e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>0.001308676930833753</v>
+        <v>0.06373401548222414</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.0476872797426779</v>
+        <v>-0.06896551724137931</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-0.09653793230270934</v>
+        <v>-0.04620298002173544</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>1</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.005182589712684768</v>
       </c>
       <c r="C110" t="n">
-        <v>0.002469343203239683</v>
+        <v>-0.002610538545504941</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1026334353407644</v>
+        <v>0.07796378253577817</v>
       </c>
       <c r="E110" t="n">
-        <v>0.03938193814457942</v>
+        <v>-0.06896551724137931</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-0.04579160294099226</v>
+        <v>0.005996566847664716</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.002094555196455947</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01950395365126096</v>
+        <v>-0.01533133674064526</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.002106523345474991</v>
+        <v>-0.05599253246627173</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.05567497318462463</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.02814930568683388</v>
+        <v>-0.1458261272563005</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>1</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.02200960680369335</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.00414280076370896</v>
+        <v>0.002769029620869467</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1149061513048747</v>
+        <v>0.05961903858632316</v>
       </c>
       <c r="E112" t="n">
-        <v>0.07412545199449497</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.06734081927468333</v>
+        <v>0.01075767490714359</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>1</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.01341917058654113</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.00215588656718535</v>
+        <v>-0.1600841907714875</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.007939448039321772</v>
+        <v>0.0008880362788321188</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.09415580296038538</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.0397262929535377</v>
+        <v>-0.05000431253723672</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1</v>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.007973211523897806</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.0174703742813563</v>
+        <v>-0.1857160492729838</v>
       </c>
       <c r="D114" t="n">
-        <v>0.001688025340408991</v>
+        <v>-0.000310332706349531</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0236344089127934</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-0.09424101818828895</v>
+        <v>-0.1736757340099497</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>1</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.006728229141111828</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.01992105141524359</v>
+        <v>-0.1252704155468629</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.07611237927908e-06</v>
+        <v>-0.04675434414975076</v>
       </c>
       <c r="E115" t="n">
-        <v>0.06373401548222414</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.06896551724137931</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-0.04620298002173544</v>
+        <v>-0.1085935181022369</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>1</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.01152376457286691</v>
       </c>
       <c r="C116" t="n">
-        <v>0.005182589712684768</v>
+        <v>-0.1849856684289198</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.002610538545504941</v>
+        <v>-0.1221905477104156</v>
       </c>
       <c r="E116" t="n">
-        <v>0.07796378253577817</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.06896551724137931</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.005996566847664716</v>
+        <v>-0.08545035520008801</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>1</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.01963172734028054</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.002094555196455947</v>
+        <v>-0.1323217285672731</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.01533133674064526</v>
+        <v>-0.0004219456626611066</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.05599253246627173</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-0.1458261272563005</v>
+        <v>-0.1095915260547339</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>1</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.001084098642176847</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.02200960680369335</v>
+        <v>-0.0599343729974551</v>
       </c>
       <c r="D118" t="n">
-        <v>0.002769029620869467</v>
+        <v>0.01097986471390008</v>
       </c>
       <c r="E118" t="n">
-        <v>0.05961903858632316</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.01075767490714359</v>
+        <v>-0.1562209753484376</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>1</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.02627333703099268</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01341917058654113</v>
+        <v>-0.07577753809660263</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.1600841907714875</v>
+        <v>0.009860985891789903</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0008880362788321188</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-0.05000431253723672</v>
+        <v>-0.1178366092903946</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>1</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.008984645824666971</v>
       </c>
       <c r="C120" t="n">
-        <v>0.007973211523897806</v>
+        <v>-0.05560294310276788</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.1857160492729838</v>
+        <v>-0.07532591323502615</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.000310332706349531</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-0.1736757340099497</v>
+        <v>-0.0534031024243669</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>1</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.002868130442048157</v>
       </c>
       <c r="C121" t="n">
-        <v>0.006728229141111828</v>
+        <v>-0.05968251364537171</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1252704155468629</v>
+        <v>0.04508457228149283</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.04675434414975076</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-0.1085935181022369</v>
+        <v>-0.02752175265301238</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>1</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.01186522031294989</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01152376457286691</v>
+        <v>-0.05860483585672341</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1849856684289198</v>
+        <v>0.06788171095133617</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.1221905477104156</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-0.08545035520008801</v>
+        <v>-0.07826100389201589</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>1</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.001253159898883241</v>
       </c>
       <c r="C123" t="n">
-        <v>0.01963172734028054</v>
+        <v>-0.05733905737323879</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.1323217285672731</v>
+        <v>0.1075173121292557</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.0004219456626611066</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-0.1095915260547339</v>
+        <v>0.08522194389650457</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>1</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.02676283247824954</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.001084098642176847</v>
+        <v>-0.1800782822286655</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.0599343729974551</v>
+        <v>-0.06291114030160569</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01097986471390008</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-0.1562209753484376</v>
+        <v>0.02247863437553614</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>1</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.05319638660451751</v>
       </c>
       <c r="C125" t="n">
-        <v>0.02627333703099268</v>
+        <v>-0.3112970792691919</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.07577753809660263</v>
+        <v>-0.2999881951373661</v>
       </c>
       <c r="E125" t="n">
-        <v>0.009860985891789903</v>
+        <v>-0.9310344827586207</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-0.1178366092903946</v>
+        <v>-0.4190504222225366</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>1</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.001615814960587939</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.008984645824666971</v>
+        <v>-0.05965183190124053</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.05560294310276788</v>
+        <v>-0.05147252299158853</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.07532591323502615</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-0.0534031024243669</v>
+        <v>0.01776597079096199</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B127" s="1" t="n">
-        <v>1</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.001567816496538711</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.002868130442048157</v>
+        <v>-0.05493111590054871</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.05968251364537171</v>
+        <v>-0.01137032219027122</v>
       </c>
       <c r="E127" t="n">
-        <v>0.04508457228149283</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-0.02752175265301238</v>
+        <v>-0.120707803325614</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>1</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.1188757070884842</v>
       </c>
       <c r="C128" t="n">
-        <v>0.01186522031294989</v>
+        <v>-0.3132919165309156</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.05860483585672341</v>
+        <v>-0.7050587499211837</v>
       </c>
       <c r="E128" t="n">
-        <v>0.06788171095133617</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-0.07826100389201589</v>
+        <v>-0.2756593751594757</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.02584215082895126</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.001253159898883241</v>
+        <v>-0.1827097920699882</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.05733905737323879</v>
+        <v>-0.0007610403778967281</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1075173121292557</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.08522194389650457</v>
+        <v>-0.0642560157530087</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>-0.01463375394209606</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.02676283247824954</v>
+        <v>-0.05268198583462039</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.1800782822286655</v>
+        <v>-0.06007511319882203</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.06291114030160569</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.02247863437553614</v>
+        <v>-0.08771600801679225</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>1</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.02097381772672158</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.05319638660451751</v>
+        <v>-0.0559215383570066</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.3112970792691918</v>
+        <v>0.03924989191327756</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.2999881951373661</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.9310344827586207</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-0.4190504222225366</v>
+        <v>-0.1228852091223009</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="n">
-        <v>0.5</v>
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>-0.02262394270050021</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.01647102848264404</v>
+        <v>-0.06161070732502005</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.005238857539587366</v>
+        <v>0.07097510510446021</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1666874233697069</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.603448275862069</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-0.491964019875306</v>
+        <v>0.04443552792394523</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.01512827145086915</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.001615814960587939</v>
+        <v>-0.08707269249619731</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.05965183190124053</v>
+        <v>-0.1511919378454551</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.05147252299158853</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.01776597079096199</v>
+        <v>-0.01617761080998848</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>1</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-0.01000056887068496</v>
       </c>
       <c r="C134" t="n">
-        <v>0.001567816496538711</v>
+        <v>-0.1168114697209426</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.05493111590054871</v>
+        <v>0.03146378843694222</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.01137032219027122</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-0.120707803325614</v>
+        <v>-0.1137693485291553</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>1</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-0.03056111093333914</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.1188757070884842</v>
+        <v>-0.01159374849157164</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.3132919165309156</v>
+        <v>-0.203519610431615</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.7050587499211837</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-0.2756593751594757</v>
+        <v>-0.03912309915271836</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>1</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.008865894069167551</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.02584215082895126</v>
+        <v>-0.09744586588281691</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.1827097920699882</v>
+        <v>-0.2311959391310658</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.0007610403778967281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-0.0642560157530087</v>
+        <v>0.1326554978548483</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.003587796301629483</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.01463375394209606</v>
+        <v>-0.00164908148153518</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.05268198583462039</v>
+        <v>-0.2236657198314763</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.06007511319882203</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-0.08771600801679225</v>
+        <v>-0.08171646414223832</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>1</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.0002291926658346596</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.02097381772672158</v>
+        <v>0.009252547891127772</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.0559215383570066</v>
+        <v>-0.04251432123614587</v>
       </c>
       <c r="E138" t="n">
-        <v>0.03924989191327756</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-0.1228852091223009</v>
+        <v>-0.1517899533826723</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>1</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.009248992921115466</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.02262394270050021</v>
+        <v>0.09510711542795899</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.06161070732502005</v>
+        <v>-0.2453914263685921</v>
       </c>
       <c r="E139" t="n">
-        <v>0.07097510510446021</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.04443552792394523</v>
+        <v>0.0248531997014875</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>1</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.01082885347668881</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.01512827145086915</v>
+        <v>-0.01868072742579512</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.08707269249619731</v>
+        <v>-0.1616363321227383</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.1511919378454551</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-0.01617761080998848</v>
+        <v>0.1763229707562003</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>1</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.01394337603418917</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.01000056887068496</v>
+        <v>-0.06149620016278492</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1168114697209426</v>
+        <v>-0.1728808352608296</v>
       </c>
       <c r="E141" t="n">
-        <v>0.03146378843694222</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F141" t="n">
-        <v>0.008620689655172414</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-0.1137693485291553</v>
+        <v>-0.2181343770874707</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>1</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.0138596453802368</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.03056111093333914</v>
+        <v>-0.00512055183849229</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.01159374849157164</v>
+        <v>-0.1506413300215884</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.203519610431615</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-0.03912309915271836</v>
+        <v>-0.007793965627289829</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>1</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.01372791626223495</v>
       </c>
       <c r="C143" t="n">
-        <v>0.008865894069167551</v>
+        <v>-0.1218161344045235</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.09744586588281691</v>
+        <v>0.01301504557790954</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.2311959391310658</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.1326554978548483</v>
+        <v>0.009822468756761087</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>1</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.01193032934057214</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.003587796301629483</v>
+        <v>-0.058814163752424</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.00164908148153518</v>
+        <v>-0.09180785121040325</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.2236657198314763</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-0.08171646414223832</v>
+        <v>-0.08223910026852138</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>1</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.02286255728705554</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0002291926658346596</v>
+        <v>-0.1108727773367907</v>
       </c>
       <c r="D145" t="n">
-        <v>0.009252547891127772</v>
+        <v>-0.03853638924241105</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.04251432123614587</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F145" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-0.1517899533826723</v>
+        <v>-0.01995827154894722</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>1</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.002245972573322026</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.009248992921115466</v>
+        <v>-0.05944270881332797</v>
       </c>
       <c r="D146" t="n">
-        <v>0.09510711542795899</v>
+        <v>-0.08225784403138078</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.2453914263685921</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.01724137931034483</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0248531997014875</v>
+        <v>-0.04991251525310395</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>1</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.01188708627990557</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.01082885347668881</v>
+        <v>-0.009248176171914936</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.01868072742579512</v>
+        <v>-0.1788599701102224</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.1616363321227383</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F147" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.1763229707562003</v>
+        <v>0.01067785506210106</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>1</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.009550894371380198</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.01394337603418917</v>
+        <v>0.007579187316781196</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.06149620016278492</v>
+        <v>-0.3103998482059943</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.1728808352608296</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-0.2181343770874707</v>
+        <v>0.09525704343960864</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>1</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.01469157431406633</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.0138596453802368</v>
+        <v>-0.06106215738998336</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.00512055183849229</v>
+        <v>0.01934802317188124</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.1506413300215884</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-0.007793965627289829</v>
+        <v>-0.05345685627367985</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.003578641039042406</v>
       </c>
       <c r="C150" t="n">
-        <v>0.01372791626223495</v>
+        <v>-0.005630653744254827</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1218161344045235</v>
+        <v>0.06259802078297157</v>
       </c>
       <c r="E150" t="n">
-        <v>0.01301504557790954</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.009822468756761087</v>
+        <v>-0.1027287805069802</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.00580283653145316</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01193032934057214</v>
+        <v>-0.07618683869487877</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.058814163752424</v>
+        <v>-0.0537780419183916</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.09180785121040325</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-0.08223910026852138</v>
+        <v>-0.06031765508032711</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B152" s="1" t="n">
-        <v>1</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.0008912159255347724</v>
       </c>
       <c r="C152" t="n">
-        <v>0.02286255728705554</v>
+        <v>-0.108827627365698</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.1108727773367907</v>
+        <v>0.1464593600226507</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.03853638924241105</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F152" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-0.01995827154894722</v>
+        <v>0.03295813474285487</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.05456025407186983</v>
       </c>
       <c r="C153" t="n">
-        <v>0.002245972573322026</v>
+        <v>-0.499815156711773</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.05944270881332797</v>
+        <v>-0.5285008108912483</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.08225784403138078</v>
+        <v>-0.896551724137931</v>
       </c>
       <c r="F153" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-0.04991251525310395</v>
+        <v>-0.4164602039907766</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>1</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.04064789926722341</v>
       </c>
       <c r="C154" t="n">
-        <v>0.01188708627990557</v>
+        <v>-0.1148788321735755</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.009248176171914936</v>
+        <v>0.04894179635522061</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.1788599701102224</v>
+        <v>-0.03448275862068965</v>
       </c>
       <c r="F154" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.01067785506210106</v>
+        <v>-0.06421831933979788</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B155" s="1" t="n">
-        <v>1</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.0277818665358264</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.009550894371380198</v>
+        <v>0.004616380483714061</v>
       </c>
       <c r="D155" t="n">
-        <v>0.007579187316781196</v>
+        <v>0.07919202968423684</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.3103998482059943</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.09525704343960864</v>
+        <v>0.03821807086213382</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>1</v>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.009590404218176189</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01469157431406633</v>
+        <v>0.007861546936323035</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.06106215738998336</v>
+        <v>0.04384989812836726</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01934802317188124</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-0.05345685627367985</v>
+        <v>0.0153962826384389</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>1</v>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.009479030004373149</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.003578641039042406</v>
+        <v>-0.007470694591363247</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.005630653744254827</v>
+        <v>0.1180199045137737</v>
       </c>
       <c r="E157" t="n">
-        <v>0.06259802078297157</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-0.1027287805069802</v>
+        <v>0.04598600275521991</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>1</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.02133571725704779</v>
       </c>
       <c r="C158" t="n">
-        <v>0.00580283653145316</v>
+        <v>0.01490972983386994</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.07618683869487877</v>
+        <v>0.008634133659043815</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.0537780419183916</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-0.06031765508032711</v>
+        <v>0.006536390632766325</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>1</v>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.02740756740228758</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.0008912159255347724</v>
+        <v>-0.001233719217381278</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.108827627365698</v>
+        <v>0.1525269414575983</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1464593600226507</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.03295813474285487</v>
+        <v>0.1448497128862923</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>1</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.01447375906193234</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.08108198315431686</v>
+        <v>-0.07446642733997121</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.4569024828196988</v>
+        <v>0.03684871340794976</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.3969905920965606</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-0.2117289218231717</v>
+        <v>-0.04586330533285558</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n"/>
-      <c r="B161" s="1" t="n">
-        <v>0.5</v>
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.03173040684920297</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.03202039756949998</v>
+        <v>-0.1082392819784587</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.2239257624175133</v>
+        <v>-0.02860072688043367</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.1447380096917306</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.02641580615554766</v>
+        <v>0.04900079169977083</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>1</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.03202039756949998</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.05456025407186983</v>
+        <v>-0.2239257624175133</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.499815156711773</v>
+        <v>-0.1447380096917306</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.5285008108912483</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.896551724137931</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-0.4164602039907766</v>
+        <v>0.02641580615554766</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>1</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.0101838074514948</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.04064789926722341</v>
+        <v>-0.07659793849037648</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1148788321735755</v>
+        <v>-0.1135783668111847</v>
       </c>
       <c r="E163" t="n">
-        <v>0.04894179635522061</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.03448275862068965</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-0.06421831933979788</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.0277818665358264</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.004616380483714061</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.07919202968423684</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.03821807086213382</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.009590404218176189</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.007861546936323035</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.04384989812836726</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.0153962826384389</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-0.009479030004373149</v>
-      </c>
-      <c r="D166" t="n">
-        <v>-0.007470694591363247</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.1180199045137737</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.04598600275521991</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.02133571725704779</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.01490972983386994</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.008634133659043815</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.006536390632766325</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.02740756740228758</v>
-      </c>
-      <c r="D168" t="n">
-        <v>-0.001233719217381278</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.1525269414575983</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.1448497128862923</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-0.01447375906193234</v>
-      </c>
-      <c r="D169" t="n">
-        <v>-0.07446642733997121</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.03684871340794976</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-0.04586330533285558</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-0.03173040684920297</v>
-      </c>
-      <c r="D170" t="n">
-        <v>-0.1082392819784587</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-0.02860072688043367</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.04900079169977083</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-0.005561599806583991</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.0004047524426554516</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-0.09572663697820839</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-0.1384303447372311</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n"/>
-      <c r="B172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-0.0101838074514948</v>
-      </c>
-      <c r="D172" t="n">
-        <v>-0.07659793849037648</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-0.1135783668111847</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="n">
         <v>0.02884900771259319</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-0.01034453564152619</v>
-      </c>
-      <c r="D173" t="n">
-        <v>-0.04429739609971994</v>
-      </c>
-      <c r="E173" t="n">
-        <v>-0.1342852911885162</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-0.04504103405473774</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-0.007587446090613906</v>
-      </c>
-      <c r="D174" t="n">
-        <v>-0.03300993114603308</v>
-      </c>
-      <c r="E174" t="n">
-        <v>-0.05964916627891919</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-0.1319402216039935</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A171:A174"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/2022-07-28_Morphology_Assay_fchange.xlsx
+++ b/Data/2022-07-28_Morphology_Assay_fchange.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,27 +455,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Body length (µm)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Heart Rate (BPM)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ejection fraction (%)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Number ISV (Count)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ISV area (µm^2)</t>
         </is>
@@ -466,19 +487,22 @@
           <t>Papaverine_1C02</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.00712683860783112</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-0.01115019728662516</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1645073935273591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>-0.02917453243694913</v>
       </c>
     </row>
@@ -488,19 +512,22 @@
           <t>GSK-369796_1C03</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.003757479760647703</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-0.09800537252544124</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.1124571974736144</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.03448275862068965</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.004813200126534171</v>
       </c>
     </row>
@@ -510,19 +537,22 @@
           <t>Daclatasvir_1C04</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>-0.0002288815646789336</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-0.1163241764871821</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.02314647368200827</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>-0.06280909713886781</v>
       </c>
     </row>
@@ -532,19 +562,22 @@
           <t>Lonafarnib_1C05</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.001212938963730896</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-0.1207982928257897</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.1043734660440691</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>-0.008610219066656868</v>
       </c>
     </row>
@@ -554,19 +587,22 @@
           <t>Itraconazole_1C06</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>-0.007277544896341095</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-0.154389181187012</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-0.02111749699184555</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>-0.03904639643644017</v>
       </c>
     </row>
@@ -576,19 +612,22 @@
           <t>GSK 983_1C07</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>-0.002259838796269622</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-0.07442354797680666</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.08059972548425759</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>-0.04359648079143141</v>
       </c>
     </row>
@@ -598,19 +637,22 @@
           <t>Tioguanine_1C08</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.0005453158832249775</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-0.03857254319374855</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.002716959068784144</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>-0.06352378022451353</v>
       </c>
     </row>
@@ -620,19 +662,22 @@
           <t>Tomivosertib_1C09</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.007925524161004553</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.004917617232655698</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.04282112568146777</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>-0.09563268268207416</v>
       </c>
     </row>
@@ -642,19 +687,22 @@
           <t>LY 2228820_1C10</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>0.007283322489235957</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-0.01786926064603158</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.06732018835227227</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.007499856869787911</v>
       </c>
     </row>
@@ -664,8 +712,8 @@
           <t>Control</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -677,6 +725,9 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,19 +737,22 @@
           <t>Tigecycline_1C11</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.01354489989653655</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-0.01678991739215161</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.1305464444199229</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>-0.09909434778571677</v>
       </c>
     </row>
@@ -708,19 +762,22 @@
           <t>Digoxin_1D02</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>-0.01383657945167974</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-0.0142474382170765</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-0.09666183091499618</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.03448275862068965</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.1218212936962271</v>
       </c>
     </row>
@@ -730,19 +787,22 @@
           <t>Amodiaquine_1D03</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>-0.03568241371831653</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-0.07859000101762069</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-0.114532666581099</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.03448275862068965</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.02777704145260813</v>
       </c>
     </row>
@@ -752,3279 +812,3990 @@
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
         <v>-0.1055837990962067</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-0.4248825322273684</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-0.7835237182457304</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-0.03448275862068965</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-0.236299034905786</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Halofantrine_1D05</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.005638397349062631</v>
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2115222658898346</v>
+        <v>-0.09116886037424578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0620129189808214</v>
+        <v>-0.9449290528258173</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.1797693800867303</v>
       </c>
       <c r="F16" t="n">
-        <v>0.006410642578508216</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.08361530645508433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-0.02299793073288319</v>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0458226824259108</v>
+        <v>-0.005638397349062631</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1107691143344936</v>
+        <v>-0.2115222658898346</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.0620129189808214</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1242950416573006</v>
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.006410642578508216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.008769852698046955</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.01687991354324774</v>
+        <v>-0.02299793073288319</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04610612696609903</v>
+        <v>-0.0458226824259108</v>
       </c>
       <c r="E18" t="n">
+        <v>0.1107691143344936</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.03448275862068965</v>
       </c>
-      <c r="F18" t="n">
-        <v>-0.01135429800730418</v>
+      <c r="G18" t="n">
+        <v>-0.1242950416573006</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.005345251174184723</v>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01355142860304424</v>
+        <v>-0.008769852698046955</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01908357876307914</v>
+        <v>-0.01687991354324774</v>
       </c>
       <c r="E19" t="n">
+        <v>0.04610612696609903</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.03448275862068965</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.07517281219613293</v>
+      <c r="G19" t="n">
+        <v>-0.01135429800730418</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.01976385644548265</v>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.07756273744963059</v>
+        <v>-0.005345251174184723</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05745828070983299</v>
+        <v>-0.01355142860304424</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.01908357876307914</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05372381617385411</v>
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.07517281219613293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.02125949747385871</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.05043957819902401</v>
+        <v>-0.01976385644548265</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.03635772789748948</v>
+        <v>-0.07756273744963059</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.05745828070983299</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1065792649558337</v>
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.05372381617385411</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.005526578705036947</v>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.005499894220121651</v>
+        <v>-0.02125949747385871</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.06005022230598844</v>
+        <v>-0.05043957819902401</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03448275862068965</v>
+        <v>-0.03635772789748948</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0296369003137212</v>
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.1065792649558337</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.01458322222577764</v>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01346411136341642</v>
+        <v>-0.005526578705036947</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4245347837341363</v>
+        <v>-0.005499894220121651</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.06005022230598844</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05879373832252265</v>
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0296369003137212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.002155708795096293</v>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.06196694977621989</v>
+        <v>0.01458322222577764</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4266218709566636</v>
+        <v>-0.01346411136341642</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.4245347837341363</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0655152687134857</v>
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.05879373832252265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.003747991175393455</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0136045859017941</v>
+        <v>0.002155708795096293</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3472273538307575</v>
+        <v>-0.06196694977621989</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.4266218709566636</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01022993568305227</v>
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0655152687134857</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.02657901613815026</v>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.07917234652180351</v>
+        <v>0.003747991175393455</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0563057421117094</v>
+        <v>-0.0136045859017941</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.3472273538307575</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0009948384323415628</v>
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01022993568305227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.001930604887310202</v>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.003480410610421215</v>
+        <v>-0.02657901613815026</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3337911644289491</v>
+        <v>-0.07917234652180351</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.0563057421117094</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.01756988438681198</v>
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.0009948384323415628</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.007050441052553108</v>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02597889526844621</v>
+        <v>0.001930604887310202</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.4666627584674933</v>
+        <v>-0.003480410610421215</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-0.3337911644289491</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01709840257907382</v>
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.01756988438681198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.02315570346193369</v>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01776778390935521</v>
+        <v>0.007050441052553108</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.4155220735930965</v>
+        <v>0.02597889526844621</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0.4666627584674933</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05573900699972252</v>
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01709840257907382</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.002311148265477731</v>
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01704695372419331</v>
+        <v>-0.02315570346193369</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2953383252004894</v>
+        <v>0.01776778390935521</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-0.4155220735930965</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05443298564582602</v>
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.05573900699972252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.001474597257332212</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03721802411676713</v>
+        <v>-0.002311148265477731</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.5298185568091974</v>
+        <v>0.01704695372419331</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.2953383252004894</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.05186685258972493</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05443298564582602</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.002299881959332786</v>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.006518058833472262</v>
+        <v>0.001474597257332212</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2571224589026636</v>
+        <v>0.03721802411676713</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-0.5298185568091974</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.006043138855094042</v>
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.05186685258972493</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.01114982098350619</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.01953434644011733</v>
+        <v>0.002299881959332786</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2141119220431045</v>
+        <v>0.006518058833472262</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.01724137931034483</v>
+        <v>-0.2571224589026636</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.115307995071116</v>
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.006043138855094042</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.01744657504293207</v>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.3167031952359304</v>
+        <v>0.01114982098350619</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1495011237230441</v>
+        <v>-0.01953434644011733</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-0.2141119220431045</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1416220070848472</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.115307995071116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.032948812304673</v>
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1250699564956635</v>
+        <v>-0.01744657504293207</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.04961469808355425</v>
+        <v>-0.3167031952359304</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-0.1495011237230441</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.224286230701199</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.1416220070848472</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Ivermectin_1F05</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.07494711280350151</v>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.5581970577830738</v>
+        <v>-0.032948812304673</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03299084620236045</v>
+        <v>-0.1250699564956635</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.01724137931034483</v>
+        <v>-0.04961469808355425</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2409763621902911</v>
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.224286230701199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.04084535961515908</v>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.001936690844561634</v>
+        <v>-0.07494711280350151</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.08469652857215955</v>
+        <v>-0.5581970577830738</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.03299084620236045</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.1170379595540736</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.2409763621902911</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.02195129755847817</v>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003642415805263389</v>
+        <v>-0.04084535961515908</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.08282786947253286</v>
+        <v>0.001936690844561634</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-0.08469652857215955</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1585304746566137</v>
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.1170379595540736</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.05048222901311607</v>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.3286117631421266</v>
+        <v>-0.02195129755847817</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.5203046265466941</v>
+        <v>0.003642415805263389</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.9310344827586207</v>
+        <v>-0.08282786947253286</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5119966675119724</v>
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.1585304746566137</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0001434398543690688</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2087691825671514</v>
+        <v>-0.05048222901311607</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.06402152522261127</v>
+        <v>-0.3286117631421265</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-0.5203046265466941</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.06619936155120019</v>
+        <v>-0.9310344827586207</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.5119966675119724</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.004016227036290393</v>
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.03574247349438197</v>
+        <v>-0.02087795412769005</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1355367795900152</v>
+        <v>-0.08439932628584117</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.007863415416326925</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.175337085462401</v>
+        <v>-0.1206896551724138</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.1720663063870902</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.02593703668149286</v>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.08874606132518034</v>
+        <v>0.0001434398543690688</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.07222402503556485</v>
+        <v>-0.2087691825671514</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>-0.06402152522261127</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1479084317907293</v>
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.06619936155120019</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.009496496112124407</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.172925171050358</v>
+        <v>-0.004016227036290393</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0621319011172517</v>
+        <v>-0.03574247349438197</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.01724137931034483</v>
+        <v>-0.1355367795900152</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.07525453438847189</v>
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.175337085462401</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>-0.04334399077007321</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.9070563703979871</v>
+        <v>-0.02593703668149286</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.8109305253993628</v>
+        <v>-0.08874606132518034</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.01724137931034483</v>
+        <v>-0.07222402503556485</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.2843081284717092</v>
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.1479084317907293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.0574821605708617</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.2149798311034005</v>
+        <v>-0.009496496112124407</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008620798621945808</v>
+        <v>-0.172925171050358</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-0.0621319011172517</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.06696357906782612</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.07525453438847189</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.00594474310155417</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1721003141136197</v>
+        <v>-0.04334399077007321</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.09917405252301034</v>
+        <v>-0.9070563703979871</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01724137931034483</v>
+        <v>-0.8109305253993628</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.2860952685502859</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.2843081284717092</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.01989363007050437</v>
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.06194158751082038</v>
+        <v>-0.009835285270871283</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0106611734402214</v>
+        <v>-0.6090800626023113</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.01724137931034483</v>
+        <v>-0.1941463569953896</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.009652049231578027</v>
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.02530616147348484</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.004648473471071029</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1605049455085332</v>
+        <v>-0.0574821605708617</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01571107148596218</v>
+        <v>-0.2149798311034005</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.01724137931034483</v>
+        <v>0.008620798621945808</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1837955480198554</v>
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.06696357906782612</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.0365693631137138</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.4801111529346809</v>
+        <v>0.00594474310155417</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1350561863733845</v>
+        <v>-0.1721003141136197</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.01724137931034483</v>
+        <v>-0.09917405252301034</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.04343225829015767</v>
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.2860952685502859</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.001476663857867566</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.06756227747042014</v>
+        <v>-0.01989363007050437</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.08266337819567406</v>
+        <v>-0.06194158751082038</v>
       </c>
       <c r="E50" t="n">
+        <v>-0.0106611734402214</v>
+      </c>
+      <c r="F50" t="n">
         <v>-0.01724137931034483</v>
       </c>
-      <c r="F50" t="n">
-        <v>-0.1074394626443445</v>
+      <c r="G50" t="n">
+        <v>-0.009652049231578027</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.03782901169384813</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.08862540413869106</v>
+        <v>-0.004648473471071029</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1186246000164902</v>
+        <v>-0.160504945508533</v>
       </c>
       <c r="E51" t="n">
+        <v>0.01571107148596236</v>
+      </c>
+      <c r="F51" t="n">
         <v>-0.01724137931034483</v>
       </c>
-      <c r="F51" t="n">
-        <v>-0.07786427286989973</v>
+      <c r="G51" t="n">
+        <v>-0.1837955480198554</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.04398254811401601</v>
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.02670813343531545</v>
+        <v>-0.007056885290781812</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07447740217738172</v>
+        <v>-0.2391041402697273</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0.01313539009451805</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.0421952061324114</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.07875164488997985</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.009409032244301577</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01732353407851532</v>
+        <v>-0.0365693631137138</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.323410518800583</v>
+        <v>-0.4801111529346808</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03448275862068965</v>
+        <v>-0.1350561863733845</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05772030957173618</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.04343225829015767</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.004618252215929033</v>
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.05167651910438204</v>
+        <v>-0.01256702007757971</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.3603261888420143</v>
+        <v>-0.2486939858466934</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.02240371919477434</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.01783112617984053</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.01458019307606877</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.002913773425917126</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.0548570929476269</v>
+        <v>-0.001476663857867566</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1201140637233662</v>
+        <v>-0.06756227747042014</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>-0.08266337819567406</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.01664701236970052</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.1074394626443445</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.01527248905812803</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.04623989653834119</v>
+        <v>0.03782901169384813</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.3699524698575505</v>
+        <v>-0.08862540413869106</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.1186246000164902</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1910628541309405</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.07786427286989973</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.02115954511677848</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04967074194929143</v>
+        <v>0.04398254811401601</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1461327253177891</v>
+        <v>-0.02670813343531545</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.07447740217738172</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09674630603523693</v>
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.0421952061324114</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.02503097678652067</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.04879970431706839</v>
+        <v>0.009409032244301577</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03990374626252334</v>
+        <v>-0.01732353407851532</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>-0.323410518800583</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.0530726252417675</v>
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.05772030957173618</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.01358525416075569</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.05204455388050127</v>
+        <v>-0.004618252215929033</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.128167291837342</v>
+        <v>-0.05167651910438204</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-0.3603261888420143</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.07546625487396172</v>
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.01783112617984053</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.00986737313294863</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05447023290346559</v>
+        <v>-0.002913773425917126</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1851016183454993</v>
+        <v>-0.0548570929476269</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-0.1201140637233662</v>
       </c>
       <c r="F60" t="n">
-        <v>0.05752113661610024</v>
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.01664701236970052</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.002308237247519229</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.05222180140379252</v>
+        <v>0.01527248905812803</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0365571704519049</v>
+        <v>-0.04623989653834119</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>-0.3699524698575505</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1047458656576752</v>
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.1910628541309405</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.01178828944140458</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.006820120071054286</v>
+        <v>0.02115954511677848</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.3288213565338179</v>
+        <v>0.04967074194929143</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>-0.1461327253177891</v>
       </c>
       <c r="F62" t="n">
-        <v>0.05970895763970182</v>
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.09674630603523693</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>-0.03085616815817455</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.1917682468665252</v>
+        <v>0.02503097678652067</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.03148572989060737</v>
+        <v>-0.04879970431706839</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.03990374626252334</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02213482045030708</v>
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.0530726252417675</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>-0.01598242189583272</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.1093578705766873</v>
+        <v>0.01358525416075569</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.09777814192280526</v>
+        <v>-0.05204455388050127</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>-0.128167291837342</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.01130009817688429</v>
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.07546625487396172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.0163707650244082</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.110247393797775</v>
+        <v>-0.00986737313294863</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.118165948359695</v>
+        <v>0.05447023290346559</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>-0.1851016183454993</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.142258691863213</v>
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.05752113661610024</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>-0.01025838284286022</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.171197821971894</v>
+        <v>0.002308237247519229</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.875693990546807</v>
+        <v>0.05222180140379252</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.0365571704519049</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.0757120532076016</v>
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.1047458656576752</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>-0.04563720627606585</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.197108879645586</v>
+        <v>0.01178828944140458</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2063850294021187</v>
+        <v>-0.006820120071054286</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>-0.3288213565338179</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.05301075793245581</v>
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.05970895763970182</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>-0.09395468233905414</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.1079686722487392</v>
+        <v>-0.03085616815817455</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.185449790863783</v>
+        <v>-0.1917682468665252</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.1724137931034483</v>
+        <v>-0.03148572989060737</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3722846089123866</v>
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.02213482045030708</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.01817115185647391</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.06097890316324067</v>
+        <v>-0.01598242189583272</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.2997573404567632</v>
+        <v>-0.1093578705766873</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03448275862068965</v>
+        <v>-0.09777814192280526</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1148449693312674</v>
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.01130009817688429</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>-0.01762948030107486</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.09703542164379472</v>
+        <v>-0.0163707650244082</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1840825947467231</v>
+        <v>-0.110247393797775</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>-0.118165948359695</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04105227925778576</v>
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.142258691863213</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.0144717146829078</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.05037087836132494</v>
+        <v>-0.01025838284286022</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.1638380534337215</v>
+        <v>-0.171197821971894</v>
       </c>
       <c r="E71" t="n">
+        <v>-0.875693990546807</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.03448275862068965</v>
       </c>
-      <c r="F71" t="n">
-        <v>-0.0242323838094793</v>
+      <c r="G71" t="n">
+        <v>-0.0757120532076016</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.001178895608673793</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.06670110587332163</v>
+        <v>-0.04563720627606585</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07477569164705122</v>
+        <v>-0.197108879645586</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>-0.2063850294021187</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.01260860388619079</v>
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.05301075793245581</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.001764654642162561</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.02623647948550573</v>
+        <v>-0.09395468233905414</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.009082614498580605</v>
+        <v>-0.1079686722487392</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-0.185449790863783</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1551716486773633</v>
+        <v>-0.1724137931034483</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0.3722846089123866</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.0208086674559747</v>
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.02259028281510359</v>
+        <v>-0.08111122666296892</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1042060265798755</v>
+        <v>-0.1252187696902846</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>0.1966760370998306</v>
       </c>
       <c r="F74" t="n">
-        <v>0.06323716963231921</v>
+        <v>-0.06896551724137931</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.006862871550193496</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>-0.008529815934779049</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.03971649372924733</v>
+        <v>0.01817115185647391</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.07404422651499165</v>
+        <v>-0.06097890316324067</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-0.2997573404567632</v>
       </c>
       <c r="F75" t="n">
-        <v>0.008227754801378927</v>
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.1148449693312674</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-0.01701421110080032</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.1214982879819564</v>
+        <v>-0.01762948030107486</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.03613034002739701</v>
+        <v>-0.09703542164379472</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-0.1840825947467231</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.01741361859912692</v>
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.04105227925778576</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>-0.02479338438947731</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.01089441547306179</v>
+        <v>0.0144717146829078</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05892354237457461</v>
+        <v>-0.05037087836132494</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-0.1638380534337215</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.1125666659881034</v>
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.0242323838094793</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>-0.01065632566424543</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.119073763623058</v>
+        <v>0.001178895608673793</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4466058585474657</v>
+        <v>-0.06670110587332163</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.07477569164705122</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.07762930645712973</v>
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.01260860388619079</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>-0.007906147003295805</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0.003763324544453738</v>
+        <v>0.001764654642162561</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03553963249304106</v>
+        <v>-0.02623647948550573</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.01724137931034483</v>
+        <v>-0.009082614498580605</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2413266792643443</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1551716486773633</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.01505160723745731</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.001224718512913507</v>
+        <v>-0.0208086674559747</v>
       </c>
       <c r="D80" t="n">
-        <v>0.05381095776074026</v>
+        <v>-0.02259028281510359</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>-0.1042060265798755</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1108348692248611</v>
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.06323716963231921</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>-6.355352184274514e-05</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.008176775483017049</v>
+        <v>-0.008529815934779049</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2121052949888037</v>
+        <v>-0.03971649372924733</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-0.07404422651499165</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.01003384197516034</v>
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.008227754801378927</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.01221276474708359</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01112680589493983</v>
+        <v>-0.01701421110080032</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1032866906652743</v>
+        <v>-0.1214982879819564</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>-0.03613034002739701</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07050218805919514</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.01741361859912692</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.01166584891505685</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.007331212386332342</v>
+        <v>-0.02479338438947731</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02310723878765693</v>
+        <v>-0.01089441547306179</v>
       </c>
       <c r="E83" t="n">
+        <v>0.05892354237457461</v>
+      </c>
+      <c r="F83" t="n">
         <v>-0.03448275862068965</v>
       </c>
-      <c r="F83" t="n">
-        <v>-0.08810929493164037</v>
+      <c r="G83" t="n">
+        <v>-0.1125666659881034</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>-0.03317796052748527</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.104292796625223</v>
+        <v>-0.01065632566424543</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1352585868135843</v>
+        <v>-0.119073763623058</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>0.4466058585474657</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.08903867374063522</v>
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.07762930645712973</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>-0.01548830437426</v>
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.09395818510330955</v>
+        <v>-0.01694208007565981</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.07331444002435594</v>
+        <v>-0.3698351981908353</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>0.6029327515900074</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.07335994151566182</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.06485463869556723</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>-0.03806100427008557</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.1101951701690984</v>
+        <v>-0.007906147003295805</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.139400925599781</v>
+        <v>0.003763324544453738</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.03553963249304106</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.04364761333786148</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.2413266792643443</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>-0.01047193156485646</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1063556957765006</v>
+        <v>-0.01505160723745731</v>
       </c>
       <c r="D87" t="n">
-        <v>0.08945759215518324</v>
+        <v>0.001224718512913507</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>0.05381095776074026</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.01078077079707325</v>
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.1108348692248611</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>-0.04585355490846511</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.05006026323519172</v>
+        <v>-6.355352184274514e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02839760627075248</v>
+        <v>0.008176775483017049</v>
       </c>
       <c r="E88" t="n">
+        <v>0.2121052949888037</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.03448275862068965</v>
       </c>
-      <c r="F88" t="n">
-        <v>-0.08278666200731988</v>
+      <c r="G88" t="n">
+        <v>-0.01003384197516034</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.04602377168375051</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01601593778908442</v>
+        <v>-0.01221276474708359</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04724517041884032</v>
+        <v>0.01112680589493983</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.03448275862068965</v>
+        <v>0.1032866906652743</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.1598523789810213</v>
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.07050218805919514</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.006039806726184702</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0006869773455021699</v>
+        <v>-0.01166584891505685</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.1044413876029732</v>
+        <v>0.007331212386332342</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.01724137931034483</v>
+        <v>-0.02310723878765693</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.0895464500454687</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.08810929493164037</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.006119093077910395</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0135199562886822</v>
+        <v>-0.03317796052748527</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.02749736899133361</v>
+        <v>-0.104292796625223</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.01724137931034483</v>
+        <v>0.1352585868135843</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.0575500566365111</v>
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.08903867374063522</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>-0.01718051689012621</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01251232694068179</v>
+        <v>-0.01548830437426</v>
       </c>
       <c r="D92" t="n">
-        <v>0.08459608369978866</v>
+        <v>-0.09395818510330955</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0.07331444002435594</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.06479716302288066</v>
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.07335994151566182</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.01486405768348745</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.02192033624128829</v>
+        <v>-0.03806100427008557</v>
       </c>
       <c r="D93" t="n">
-        <v>0.03352692071037028</v>
+        <v>-0.1101951701690984</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-0.139400925599781</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.03797834678988829</v>
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.04364761333786148</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>-0.01332179592475261</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.1283119876046585</v>
+        <v>-0.01047193156485646</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.130434800525958</v>
+        <v>-0.1063556957765006</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.03448275862068965</v>
+        <v>0.08945759215518324</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0354617837458284</v>
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.01078077079707325</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.0009487251963493173</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.08109066565546912</v>
+        <v>-0.04585355490846511</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1021079209418307</v>
+        <v>-0.05006026323519172</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.02839760627075248</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09192517897361673</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.08278666200731988</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>-0.02560069188897065</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.1345596490724757</v>
+        <v>-0.04602377168375051</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.01059156339905711</v>
+        <v>0.01601593778908442</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.04724517041884032</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03957003324934933</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.1598523789810213</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>-0.0005319385335225379</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.03293277762065795</v>
+        <v>0.006039806726184702</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0187873442044813</v>
+        <v>0.0006869773455021699</v>
       </c>
       <c r="E97" t="n">
+        <v>-0.1044413876029732</v>
+      </c>
+      <c r="F97" t="n">
         <v>-0.01724137931034483</v>
       </c>
-      <c r="F97" t="n">
-        <v>-0.0679396872469149</v>
+      <c r="G97" t="n">
+        <v>-0.0895464500454687</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>-0.0006461126577283565</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.03736169140654919</v>
+        <v>-0.006119093077910395</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.05759001933459237</v>
+        <v>0.0135199562886822</v>
       </c>
       <c r="E98" t="n">
+        <v>-0.02749736899133361</v>
+      </c>
+      <c r="F98" t="n">
         <v>-0.01724137931034483</v>
       </c>
-      <c r="F98" t="n">
-        <v>-0.07265373141682412</v>
+      <c r="G98" t="n">
+        <v>-0.0575500566365111</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.01452246861433767</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.02560752484369195</v>
+        <v>-0.01718051689012621</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.08633029830315016</v>
+        <v>0.01251232694068179</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.08459608369978866</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.07621878302477562</v>
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.06479716302288066</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>-0.005702306415083616</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.02780716906791725</v>
+        <v>-0.01486405768348745</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1788102331599992</v>
+        <v>-0.02192033624128829</v>
       </c>
       <c r="E100" t="n">
+        <v>0.03352692071037028</v>
+      </c>
+      <c r="F100" t="n">
         <v>-0.03448275862068965</v>
       </c>
-      <c r="F100" t="n">
-        <v>-0.04583000266636217</v>
+      <c r="G100" t="n">
+        <v>-0.03797834678988829</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.008375554204487677</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.005293003917354329</v>
+        <v>-0.01332179592475261</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0153362497099775</v>
+        <v>-0.1283119876046585</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-0.130434800525958</v>
       </c>
       <c r="F101" t="n">
-        <v>0.08272567284627266</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0354617837458284</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.005727816709865342</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.05632967273557946</v>
+        <v>-0.0009487251963493173</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03377762948308386</v>
+        <v>-0.08109066565546912</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>-0.1021079209418307</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0434636409851164</v>
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.09192517897361673</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>-0.00861847976420314</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.001308676930833753</v>
+        <v>-0.02560069188897065</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.0476872797426779</v>
+        <v>-0.1345596490724757</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.01724137931034483</v>
+        <v>-0.01059156339905711</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.09653793230270934</v>
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.03957003324934933</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.002469343203239683</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.1026334353407644</v>
+        <v>-0.0005319385335225379</v>
       </c>
       <c r="D104" t="n">
-        <v>0.03938193814457942</v>
+        <v>0.03293277762065795</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.03448275862068965</v>
+        <v>0.0187873442044813</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.04579160294099226</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.0679396872469149</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.01950395365126096</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.002106523345474991</v>
+        <v>-0.0006461126577283565</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.05567497318462463</v>
+        <v>-0.03736169140654919</v>
       </c>
       <c r="E105" t="n">
+        <v>-0.05759001933459237</v>
+      </c>
+      <c r="F105" t="n">
         <v>-0.01724137931034483</v>
       </c>
-      <c r="F105" t="n">
-        <v>0.02814930568683388</v>
+      <c r="G105" t="n">
+        <v>-0.07265373141682412</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>-0.00414280076370896</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.1149061513048747</v>
+        <v>0.01452246861433767</v>
       </c>
       <c r="D106" t="n">
-        <v>0.07412545199449497</v>
+        <v>-0.02560752484369195</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-0.08633029830315016</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06734081927468333</v>
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.07621878302477562</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>-0.00215588656718535</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.007939448039321772</v>
+        <v>-0.005702306415083616</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.09415580296038538</v>
+        <v>-0.02780716906791725</v>
       </c>
       <c r="E107" t="n">
+        <v>-0.1788102331599992</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.03448275862068965</v>
       </c>
-      <c r="F107" t="n">
-        <v>0.0397262929535377</v>
+      <c r="G107" t="n">
+        <v>-0.04583000266636217</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>-0.0174703742813563</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.001688025340408991</v>
+        <v>0.008375554204487677</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0236344089127934</v>
+        <v>-0.005293003917354329</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.03448275862068965</v>
+        <v>0.0153362497099775</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.09424101818828895</v>
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.08272567284627266</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.01992105141524359</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>-2.07611237927908e-06</v>
+        <v>-0.005727816709865342</v>
       </c>
       <c r="D109" t="n">
-        <v>0.06373401548222414</v>
+        <v>0.05632967273557946</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.06896551724137931</v>
+        <v>0.03377762948308386</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.04620298002173544</v>
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0434636409851164</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.005182589712684768</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.002610538545504941</v>
+        <v>-0.00861847976420314</v>
       </c>
       <c r="D110" t="n">
-        <v>0.07796378253577817</v>
+        <v>0.001308676930833753</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.06896551724137931</v>
+        <v>-0.0476872797426779</v>
       </c>
       <c r="F110" t="n">
-        <v>0.005996566847664716</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.09653793230270934</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.002094555196455947</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.01533133674064526</v>
+        <v>0.002469343203239683</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.05599253246627173</v>
+        <v>-0.1026334353407644</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>0.03938193814457942</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.1458261272563005</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.04579160294099226</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.02200960680369335</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.002769029620869467</v>
+        <v>0.01950395365126096</v>
       </c>
       <c r="D112" t="n">
-        <v>0.05961903858632316</v>
+        <v>-0.002106523345474991</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-0.05567497318462463</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01075767490714359</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.02814930568683388</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.01341917058654113</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.1600841907714875</v>
+        <v>-0.00414280076370896</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0008880362788321188</v>
+        <v>-0.1149061513048747</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.01724137931034483</v>
+        <v>0.07412545199449497</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.05000431253723672</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.06734081927468333</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.007973211523897806</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1857160492729838</v>
+        <v>-0.00215588656718535</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.000310332706349531</v>
+        <v>-0.007939448039321772</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>-0.09415580296038538</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.1736757340099497</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0397262929535377</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.006728229141111828</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.1252704155468629</v>
+        <v>-0.0174703742813563</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.04675434414975076</v>
+        <v>0.001688025340408991</v>
       </c>
       <c r="E115" t="n">
+        <v>0.0236344089127934</v>
+      </c>
+      <c r="F115" t="n">
         <v>-0.03448275862068965</v>
       </c>
-      <c r="F115" t="n">
-        <v>-0.1085935181022369</v>
+      <c r="G115" t="n">
+        <v>-0.09424101818828895</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.01152376457286691</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.1849856684289198</v>
+        <v>-0.01992105141524359</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1221905477104156</v>
+        <v>-2.07611237927908e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>0.06373401548222414</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.08545035520008801</v>
+        <v>-0.06896551724137931</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.04620298002173544</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.01963172734028054</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.1323217285672731</v>
+        <v>0.005182589712684768</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.0004219456626611066</v>
+        <v>-0.002610538545504941</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.03448275862068965</v>
+        <v>0.07796378253577817</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.1095915260547339</v>
+        <v>-0.06896551724137931</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.005996566847664716</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>-0.001084098642176847</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.0599343729974551</v>
+        <v>-0.002094555196455947</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01097986471390008</v>
+        <v>-0.01533133674064526</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>-0.05599253246627173</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.1562209753484376</v>
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.1458261272563005</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.02627333703099268</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.07577753809660263</v>
+        <v>-0.02200960680369335</v>
       </c>
       <c r="D119" t="n">
-        <v>0.009860985891789903</v>
+        <v>0.002769029620869467</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>0.05961903858632316</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.1178366092903946</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.01075767490714359</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>-0.008984645824666971</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.05560294310276788</v>
+        <v>0.01341917058654113</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.07532591323502615</v>
+        <v>-0.1600841907714875</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>0.0008880362788321188</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.0534031024243669</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-0.05000431253723672</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>-0.002868130442048157</v>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.05968251364537171</v>
+        <v>0.007973211523897806</v>
       </c>
       <c r="D121" t="n">
-        <v>0.04508457228149283</v>
+        <v>-0.1857160492729838</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>-0.000310332706349531</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.02752175265301238</v>
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-0.1736757340099497</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.01186522031294989</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.05860483585672341</v>
+        <v>0.006728229141111828</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06788171095133617</v>
+        <v>-0.1252704155468629</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>-0.04675434414975076</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.07826100389201589</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.1085935181022369</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>-0.001253159898883241</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.05733905737323879</v>
+        <v>0.01152376457286691</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1075173121292557</v>
+        <v>-0.1849856684289198</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>-0.1221905477104156</v>
       </c>
       <c r="F123" t="n">
-        <v>0.08522194389650457</v>
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.08545035520008801</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>-0.02676283247824954</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.1800782822286655</v>
+        <v>0.01963172734028054</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.06291114030160569</v>
+        <v>-0.1323217285672731</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>-0.0004219456626611066</v>
       </c>
       <c r="F124" t="n">
-        <v>0.02247863437553614</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.1095915260547339</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>-0.05319638660451751</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.3112970792691919</v>
+        <v>-0.001084098642176847</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.2999881951373661</v>
+        <v>-0.0599343729974551</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.9310344827586207</v>
+        <v>0.01097986471390008</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.4190504222225366</v>
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.1562209753484376</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>-0.001615814960587939</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.05965183190124053</v>
+        <v>0.02627333703099268</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.05147252299158853</v>
+        <v>-0.07577753809660263</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>0.009860985891789903</v>
       </c>
       <c r="F126" t="n">
-        <v>0.01776597079096199</v>
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.1178366092903946</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.001567816496538711</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.05493111590054871</v>
+        <v>-0.008984645824666971</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.01137032219027122</v>
+        <v>-0.05560294310276788</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>-0.07532591323502615</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.120707803325614</v>
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.0534031024243669</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>-0.1188757070884842</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.3132919165309156</v>
+        <v>-0.002868130442048157</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.7050587499211837</v>
+        <v>-0.05968251364537171</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.03448275862068965</v>
+        <v>0.04508457228149283</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.2756593751594757</v>
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-0.02752175265301238</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>-0.02584215082895126</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.1827097920699882</v>
+        <v>0.01186522031294989</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.0007610403778967281</v>
+        <v>-0.05860483585672341</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>0.06788171095133617</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.0642560157530087</v>
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.07826100389201589</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>-0.01463375394209606</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.05268198583462039</v>
+        <v>-0.001253159898883241</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.06007511319882203</v>
+        <v>-0.05733905737323879</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.01724137931034483</v>
+        <v>0.1075173121292557</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.08771600801679225</v>
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.08522194389650457</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.02097381772672158</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.0559215383570066</v>
+        <v>-0.02676283247824954</v>
       </c>
       <c r="D131" t="n">
-        <v>0.03924989191327756</v>
+        <v>-0.1800782822286655</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>-0.06291114030160569</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.1228852091223009</v>
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.02247863437553614</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.02262394270050021</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.06161070732502005</v>
+        <v>-0.05319638660451751</v>
       </c>
       <c r="D132" t="n">
-        <v>0.07097510510446021</v>
+        <v>-0.3112970792691918</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>-0.2999881951373661</v>
       </c>
       <c r="F132" t="n">
-        <v>0.04443552792394523</v>
+        <v>-0.9310344827586207</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-0.4190504222225366</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>-0.01512827145086915</v>
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.08707269249619731</v>
+        <v>-0.01647102848264404</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1511919378454551</v>
+        <v>-0.005238857539587366</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.01724137931034483</v>
+        <v>0.1666874233697069</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.01617761080998848</v>
+        <v>-0.603448275862069</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-0.491964019875306</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.01000056887068496</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.1168114697209426</v>
+        <v>-0.001615814960587939</v>
       </c>
       <c r="D134" t="n">
-        <v>0.03146378843694222</v>
+        <v>-0.05965183190124053</v>
       </c>
       <c r="E134" t="n">
-        <v>0.008620689655172414</v>
+        <v>-0.05147252299158853</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.1137693485291553</v>
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.01776597079096199</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.03056111093333914</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.01159374849157164</v>
+        <v>0.001567816496538711</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.203519610431615</v>
+        <v>-0.05493111590054871</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>-0.01137032219027122</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.03912309915271836</v>
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.120707803325614</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.008865894069167551</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.09744586588281691</v>
+        <v>-0.1188757070884842</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.2311959391310658</v>
+        <v>-0.3132919165309156</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01724137931034483</v>
+        <v>-0.7050587499211837</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1326554978548483</v>
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-0.2756593751594757</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.003587796301629483</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.00164908148153518</v>
+        <v>-0.02584215082895126</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.2236657198314763</v>
+        <v>-0.1827097920699882</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>-0.0007610403778967281</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.08171646414223832</v>
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-0.0642560157530087</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.0002291926658346596</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0.009252547891127772</v>
+        <v>-0.01463375394209606</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.04251432123614587</v>
+        <v>-0.05268198583462039</v>
       </c>
       <c r="E138" t="n">
-        <v>0.01724137931034483</v>
+        <v>-0.06007511319882203</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.1517899533826723</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-0.08771600801679225</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>-0.009248992921115466</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.09510711542795899</v>
+        <v>-0.02097381772672158</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.2453914263685921</v>
+        <v>-0.0559215383570066</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.01724137931034483</v>
+        <v>0.03924989191327756</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0248531997014875</v>
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-0.1228852091223009</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>-0.01082885347668881</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.01868072742579512</v>
+        <v>-0.02262394270050021</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.1616363321227383</v>
+        <v>-0.06161070732502005</v>
       </c>
       <c r="E140" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.07097510510446021</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1763229707562003</v>
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.04443552792394523</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>-0.01394337603418917</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.06149620016278492</v>
+        <v>-0.01512827145086915</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1728808352608296</v>
+        <v>-0.08707269249619731</v>
       </c>
       <c r="E141" t="n">
-        <v>0.01724137931034483</v>
+        <v>-0.1511919378454551</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.2181343770874707</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-0.01617761080998848</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>-0.0138596453802368</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.00512055183849229</v>
+        <v>-0.01000056887068496</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.1506413300215884</v>
+        <v>-0.1168114697209426</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>0.03146378843694222</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.007793965627289829</v>
+        <v>0.008620689655172414</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-0.1137693485291553</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.01372791626223495</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1218161344045235</v>
+        <v>-0.03056111093333914</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01301504557790954</v>
+        <v>-0.01159374849157164</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>-0.203519610431615</v>
       </c>
       <c r="F143" t="n">
-        <v>0.009822468756761087</v>
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-0.03912309915271836</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.01193032934057214</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.058814163752424</v>
+        <v>0.008865894069167551</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.09180785121040325</v>
+        <v>-0.09744586588281691</v>
       </c>
       <c r="E144" t="n">
-        <v>0.03448275862068965</v>
+        <v>-0.2311959391310658</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.08223910026852138</v>
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.1326554978548483</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.02286255728705554</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.1108727773367907</v>
+        <v>-0.003587796301629483</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.03853638924241105</v>
+        <v>-0.00164908148153518</v>
       </c>
       <c r="E145" t="n">
-        <v>0.03448275862068965</v>
+        <v>-0.2236657198314763</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.01995827154894722</v>
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-0.08171646414223832</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.002245972573322026</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.05944270881332797</v>
+        <v>0.0002291926658346596</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.08225784403138078</v>
+        <v>0.009252547891127772</v>
       </c>
       <c r="E146" t="n">
+        <v>-0.04251432123614587</v>
+      </c>
+      <c r="F146" t="n">
         <v>0.01724137931034483</v>
       </c>
-      <c r="F146" t="n">
-        <v>-0.04991251525310395</v>
+      <c r="G146" t="n">
+        <v>-0.1517899533826723</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.01188708627990557</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.009248176171914936</v>
+        <v>-0.009248992921115466</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1788599701102224</v>
+        <v>0.09510711542795899</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01724137931034483</v>
+        <v>-0.2453914263685921</v>
       </c>
       <c r="F147" t="n">
-        <v>0.01067785506210106</v>
+        <v>-0.01724137931034483</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0248531997014875</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>-0.009550894371380198</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.007579187316781196</v>
+        <v>-0.01082885347668881</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.3103998482059943</v>
+        <v>-0.01868072742579512</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>-0.1616363321227383</v>
       </c>
       <c r="F148" t="n">
-        <v>0.09525704343960864</v>
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.1763229707562003</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.01469157431406633</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.06106215738998336</v>
+        <v>-0.01394337603418917</v>
       </c>
       <c r="D149" t="n">
-        <v>0.01934802317188124</v>
+        <v>-0.06149620016278492</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>-0.1728808352608296</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.05345685627367985</v>
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-0.2181343770874707</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>-0.003578641039042406</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.005630653744254827</v>
+        <v>-0.0138596453802368</v>
       </c>
       <c r="D150" t="n">
-        <v>0.06259802078297157</v>
+        <v>-0.00512055183849229</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>-0.1506413300215884</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.1027287805069802</v>
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-0.007793965627289829</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.00580283653145316</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.07618683869487877</v>
+        <v>0.01372791626223495</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.0537780419183916</v>
+        <v>-0.1218161344045235</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>0.01301504557790954</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.06031765508032711</v>
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.009822468756761087</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>-0.0008912159255347724</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.108827627365698</v>
+        <v>0.01193032934057214</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1464593600226507</v>
+        <v>-0.058814163752424</v>
       </c>
       <c r="E152" t="n">
+        <v>-0.09180785121040325</v>
+      </c>
+      <c r="F152" t="n">
         <v>0.03448275862068965</v>
       </c>
-      <c r="F152" t="n">
-        <v>0.03295813474285487</v>
+      <c r="G152" t="n">
+        <v>-0.08223910026852138</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.05456025407186983</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.499815156711773</v>
+        <v>0.02286255728705554</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.5285008108912483</v>
+        <v>-0.1108727773367907</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.896551724137931</v>
+        <v>-0.03853638924241105</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.4164602039907766</v>
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-0.01995827154894722</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.04064789926722341</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.1148788321735755</v>
+        <v>0.002245972573322026</v>
       </c>
       <c r="D154" t="n">
-        <v>0.04894179635522061</v>
+        <v>-0.05944270881332797</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.03448275862068965</v>
+        <v>-0.08225784403138078</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.06421831933979788</v>
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-0.04991251525310395</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.0277818665358264</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0.004616380483714061</v>
+        <v>0.01188708627990557</v>
       </c>
       <c r="D155" t="n">
-        <v>0.07919202968423684</v>
+        <v>-0.009248176171914936</v>
       </c>
       <c r="E155" t="n">
-        <v>0.03448275862068965</v>
+        <v>-0.1788599701102224</v>
       </c>
       <c r="F155" t="n">
-        <v>0.03821807086213382</v>
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.01067785506210106</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.009590404218176189</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0.007861546936323035</v>
+        <v>-0.009550894371380198</v>
       </c>
       <c r="D156" t="n">
-        <v>0.04384989812836726</v>
+        <v>0.007579187316781196</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01724137931034483</v>
+        <v>-0.3103998482059943</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0153962826384389</v>
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.09525704343960864</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>-0.009479030004373149</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.007470694591363247</v>
+        <v>0.01469157431406633</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1180199045137737</v>
+        <v>-0.06106215738998336</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>0.01934802317188124</v>
       </c>
       <c r="F157" t="n">
-        <v>0.04598600275521991</v>
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-0.05345685627367985</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.02133571725704779</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01490972983386994</v>
+        <v>-0.003578641039042406</v>
       </c>
       <c r="D158" t="n">
-        <v>0.008634133659043815</v>
+        <v>-0.005630653744254827</v>
       </c>
       <c r="E158" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.06259802078297157</v>
       </c>
       <c r="F158" t="n">
-        <v>0.006536390632766325</v>
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-0.1027287805069802</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.02740756740228758</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.001233719217381278</v>
+        <v>0.00580283653145316</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1525269414575983</v>
+        <v>-0.07618683869487877</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>-0.0537780419183916</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1448497128862923</v>
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-0.06031765508032711</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>-0.01447375906193234</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.07446642733997121</v>
+        <v>-0.0008912159255347724</v>
       </c>
       <c r="D160" t="n">
-        <v>0.03684871340794976</v>
+        <v>-0.108827627365698</v>
       </c>
       <c r="E160" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.1464593600226507</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.04586330533285558</v>
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.03295813474285487</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>-0.03173040684920297</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.1082392819784587</v>
+        <v>-0.08108198315431686</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.02860072688043367</v>
+        <v>-0.4569024828196988</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>-0.3969905920965606</v>
       </c>
       <c r="F161" t="n">
-        <v>0.04900079169977083</v>
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-0.2117289218231717</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C162" t="n">
         <v>-0.03202039756949998</v>
       </c>
-      <c r="C162" t="n">
+      <c r="D162" t="n">
         <v>-0.2239257624175133</v>
       </c>
-      <c r="D162" t="n">
+      <c r="E162" t="n">
         <v>-0.1447380096917306</v>
       </c>
-      <c r="E162" t="n">
-        <v>0</v>
-      </c>
       <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
         <v>0.02641580615554766</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.05456025407186983</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.499815156711773</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-0.5285008108912483</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-0.896551724137931</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-0.4164602039907766</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.04064789926722341</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.1148788321735755</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.04894179635522061</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.03448275862068965</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-0.06421831933979788</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0277818665358264</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.004616380483714061</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.07919202968423684</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.03821807086213382</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.009590404218176189</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.007861546936323035</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.04384989812836726</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.0153962826384389</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-0.009479030004373149</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.007470694591363247</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.1180199045137737</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.04598600275521991</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.02133571725704779</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.01490972983386994</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.008634133659043815</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.006536390632766325</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.02740756740228758</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.001233719217381278</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.1525269414575983</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.1448497128862923</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.01447375906193234</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.07446642733997121</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.03684871340794976</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.01724137931034483</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-0.04586330533285558</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.03173040684920297</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-0.1082392819784587</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-0.02860072688043367</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.04900079169977083</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
           <t>Molnupiravir</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B172" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.005561599806583991</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.0004047524426554516</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-0.09572663697820839</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-0.1384303447372311</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
         <v>-0.0101838074514948</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D173" t="n">
         <v>-0.07659793849037648</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E173" t="n">
         <v>-0.1135783668111847</v>
       </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="n">
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
         <v>0.02884900771259319</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.01034453564152619</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-0.04429739609971994</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-0.1342852911885162</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-0.04504103405473774</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.007587446090613906</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-0.03300993114603308</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-0.05964916627891919</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-0.1319402216039935</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A172:A175"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>